--- a/data/trans_dic/P25_6-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_6-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón)</t>
+          <t>Población que padece enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón) (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>6,58%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,52%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11,14%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,85; 19,03</t>
+          <t>0,0; 9,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,5; 21,39</t>
+          <t>1,44; 16,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,32; 16,16</t>
+          <t>0,0; 12,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 16,32</t>
+          <t>3,04; 22,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,98; 16,07</t>
+          <t>4,05; 23,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 15,79</t>
+          <t>3,09; 19,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 15,29</t>
+          <t>3,66; 24,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,21; 15,39</t>
+          <t>5,08; 23,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,39; 14,63</t>
+          <t>2,33; 13,33</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3,48; 14,74</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3,2; 17,15</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5,82; 20,49</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,88%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,5%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,33</t>
+          <t>2,33; 9,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 6,66</t>
+          <t>1,6; 7,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,19</t>
+          <t>0,46; 5,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 7,97</t>
+          <t>2,19; 10,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,36</t>
+          <t>1,93; 8,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 11,25</t>
+          <t>2,42; 9,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 6,91</t>
+          <t>2,51; 9,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,74</t>
+          <t>3,96; 14,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,54</t>
+          <t>2,85; 7,67</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 7,3</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 5,93</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3,95; 9,74</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>4,33%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4,62%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 16,27</t>
+          <t>2,53; 21,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 7,86</t>
+          <t>2,06; 10,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 13,54</t>
+          <t>3,04; 18,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,03</t>
+          <t>2,21; 16,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 6,03</t>
+          <t>0,48; 4,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,32</t>
+          <t>1,2; 6,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,98</t>
+          <t>0,0; 3,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,7</t>
+          <t>0,89; 8,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,53</t>
+          <t>1,85; 10,11</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 7,61</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,68; 8,63</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 9,33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 9,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 7,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 7,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 6,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4,27%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4,19%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,9%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,24%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,12; 11,05</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,78; 7,22</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,36; 7,96</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,69; 10,08</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,48; 6,56</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3,14; 7,32</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,34; 6,88</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,44; 10,34</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3,27; 7,58</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 6,42</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2,85; 6,53</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,93; 9,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón) (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2540</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6073</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4302</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18826</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15165</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10549</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13842</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24795</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17706</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>16622</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18145</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>43620</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12798</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1523; 17064</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14570</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5406; 39780</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5681; 33322</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3567; 22642</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4484; 29380</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10876; 50813</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6261; 35856</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7694; 32565</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7564; 40553</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>22802; 80256</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22328</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14506</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8521</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>25720</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>21083</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>19281</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>18469</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>38705</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>43412</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>33788</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>26990</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>64425</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10028; 42756</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6006; 27777</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1823; 22348</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11287; 53214</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8873; 40579</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9152; 37561</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9427; 34459</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19490; 70868</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25340; 68221</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20548; 55072</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14559; 45820</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>39746; 98078</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25286</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13823</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20912</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22411</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7662</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10988</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2241</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12336</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>32948</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>24811</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>23153</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>34747</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8427; 70410</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5829; 29072</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8379; 50194</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7815; 56789</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2048; 20237</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4145; 24021</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12763</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3546; 33350</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14054; 76964</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14093; 47746</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10105; 52049</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16940; 70201</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>50155</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>34403</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>33735</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>66957</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>43910</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>40818</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>34553</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>75835</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>94065</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>75221</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>68288</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>142793</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>27806; 98518</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>21219; 55133</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18539; 62633</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>38624; 105409</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>25465; 67406</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>26351; 61319</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>19307; 56799</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>49088; 114381</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>62677; 145444</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>54612; 102846</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>45931; 105242</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>105979; 198963</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
